--- a/stock_historical_data/1wk/BGRENERGY.NS.xlsx
+++ b/stock_historical_data/1wk/BGRENERGY.NS.xlsx
@@ -48685,7 +48685,9 @@
       <c r="Q861" t="n">
         <v>0</v>
       </c>
-      <c r="R861" t="inlineStr"/>
+      <c r="R861" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BGRENERGY.NS.xlsx
+++ b/stock_historical_data/1wk/BGRENERGY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R861"/>
+  <dimension ref="A1:R863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48689,6 +48689,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B862" t="n">
+        <v>39.11999893188477</v>
+      </c>
+      <c r="C862" t="n">
+        <v>39.11999893188477</v>
+      </c>
+      <c r="D862" t="n">
+        <v>37.13999938964844</v>
+      </c>
+      <c r="E862" t="n">
+        <v>37.59999847412109</v>
+      </c>
+      <c r="F862" t="n">
+        <v>37.59999847412109</v>
+      </c>
+      <c r="G862" t="n">
+        <v>346661</v>
+      </c>
+      <c r="H862" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I862" t="n">
+        <v>6</v>
+      </c>
+      <c r="J862" t="n">
+        <v>18</v>
+      </c>
+      <c r="K862" t="n">
+        <v>0</v>
+      </c>
+      <c r="L862" t="n">
+        <v>0</v>
+      </c>
+      <c r="M862" t="n">
+        <v>0</v>
+      </c>
+      <c r="N862" t="n">
+        <v>25</v>
+      </c>
+      <c r="O862" t="n">
+        <v>0</v>
+      </c>
+      <c r="P862" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q862" t="n">
+        <v>2</v>
+      </c>
+      <c r="R862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B863" t="n">
+        <v>37.29999923706055</v>
+      </c>
+      <c r="C863" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D863" t="n">
+        <v>37.29999923706055</v>
+      </c>
+      <c r="E863" t="n">
+        <v>38.20000076293945</v>
+      </c>
+      <c r="F863" t="n">
+        <v>38.20000076293945</v>
+      </c>
+      <c r="G863" t="n">
+        <v>194755</v>
+      </c>
+      <c r="H863" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I863" t="n">
+        <v>6</v>
+      </c>
+      <c r="J863" t="n">
+        <v>25</v>
+      </c>
+      <c r="K863" t="n">
+        <v>0</v>
+      </c>
+      <c r="L863" t="n">
+        <v>0</v>
+      </c>
+      <c r="M863" t="n">
+        <v>0</v>
+      </c>
+      <c r="N863" t="n">
+        <v>26</v>
+      </c>
+      <c r="O863" t="n">
+        <v>0</v>
+      </c>
+      <c r="P863" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q863" t="n">
+        <v>0</v>
+      </c>
+      <c r="R863" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/BGRENERGY.NS.xlsx
+++ b/stock_historical_data/1wk/BGRENERGY.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R863"/>
+  <dimension ref="A1:R898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -48733,7 +48733,7 @@
         <v>25</v>
       </c>
       <c r="O862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P862" t="n">
         <v>2</v>
@@ -48741,7 +48741,9 @@
       <c r="Q862" t="n">
         <v>2</v>
       </c>
-      <c r="R862" t="inlineStr"/>
+      <c r="R862" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
@@ -48795,7 +48797,1829 @@
       <c r="Q863" t="n">
         <v>0</v>
       </c>
-      <c r="R863" t="inlineStr"/>
+      <c r="R863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B864" t="n">
+        <v>41.79999923706055</v>
+      </c>
+      <c r="C864" t="n">
+        <v>46.27999877929688</v>
+      </c>
+      <c r="D864" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E864" t="n">
+        <v>46.27999877929688</v>
+      </c>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="n">
+        <v>821629</v>
+      </c>
+      <c r="H864" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I864" t="n">
+        <v>7</v>
+      </c>
+      <c r="J864" t="n">
+        <v>2</v>
+      </c>
+      <c r="K864" t="n">
+        <v>0</v>
+      </c>
+      <c r="L864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M864" t="n">
+        <v>0</v>
+      </c>
+      <c r="N864" t="n">
+        <v>27</v>
+      </c>
+      <c r="O864" t="n">
+        <v>0</v>
+      </c>
+      <c r="P864" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q864" t="n">
+        <v>0</v>
+      </c>
+      <c r="R864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B865" t="n">
+        <v>48.59000015258789</v>
+      </c>
+      <c r="C865" t="n">
+        <v>48.95000076293945</v>
+      </c>
+      <c r="D865" t="n">
+        <v>47.61000061035156</v>
+      </c>
+      <c r="E865" t="n">
+        <v>47.9900016784668</v>
+      </c>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="n">
+        <v>920182</v>
+      </c>
+      <c r="H865" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I865" t="n">
+        <v>7</v>
+      </c>
+      <c r="J865" t="n">
+        <v>9</v>
+      </c>
+      <c r="K865" t="n">
+        <v>0</v>
+      </c>
+      <c r="L865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M865" t="n">
+        <v>0</v>
+      </c>
+      <c r="N865" t="n">
+        <v>28</v>
+      </c>
+      <c r="O865" t="n">
+        <v>1</v>
+      </c>
+      <c r="P865" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>0</v>
+      </c>
+      <c r="R865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B866" t="n">
+        <v>47.9900016784668</v>
+      </c>
+      <c r="C866" t="n">
+        <v>47.9900016784668</v>
+      </c>
+      <c r="D866" t="n">
+        <v>44.68999862670898</v>
+      </c>
+      <c r="E866" t="n">
+        <v>44.68999862670898</v>
+      </c>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="n">
+        <v>89100</v>
+      </c>
+      <c r="H866" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I866" t="n">
+        <v>7</v>
+      </c>
+      <c r="J866" t="n">
+        <v>16</v>
+      </c>
+      <c r="K866" t="n">
+        <v>0</v>
+      </c>
+      <c r="L866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M866" t="n">
+        <v>0</v>
+      </c>
+      <c r="N866" t="n">
+        <v>29</v>
+      </c>
+      <c r="O866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>0</v>
+      </c>
+      <c r="R866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B867" t="n">
+        <v>43.79000091552734</v>
+      </c>
+      <c r="C867" t="n">
+        <v>43.79000091552734</v>
+      </c>
+      <c r="D867" t="n">
+        <v>42</v>
+      </c>
+      <c r="E867" t="n">
+        <v>42.91999816894531</v>
+      </c>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="n">
+        <v>280616</v>
+      </c>
+      <c r="H867" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I867" t="n">
+        <v>7</v>
+      </c>
+      <c r="J867" t="n">
+        <v>23</v>
+      </c>
+      <c r="K867" t="n">
+        <v>0</v>
+      </c>
+      <c r="L867" t="n">
+        <v>0</v>
+      </c>
+      <c r="M867" t="n">
+        <v>0</v>
+      </c>
+      <c r="N867" t="n">
+        <v>30</v>
+      </c>
+      <c r="O867" t="n">
+        <v>0</v>
+      </c>
+      <c r="P867" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>0</v>
+      </c>
+      <c r="R867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B868" t="n">
+        <v>43.77000045776367</v>
+      </c>
+      <c r="C868" t="n">
+        <v>45.52999877929688</v>
+      </c>
+      <c r="D868" t="n">
+        <v>43.72000122070312</v>
+      </c>
+      <c r="E868" t="n">
+        <v>43.72000122070312</v>
+      </c>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="n">
+        <v>321558</v>
+      </c>
+      <c r="H868" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I868" t="n">
+        <v>7</v>
+      </c>
+      <c r="J868" t="n">
+        <v>30</v>
+      </c>
+      <c r="K868" t="n">
+        <v>0</v>
+      </c>
+      <c r="L868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M868" t="n">
+        <v>0</v>
+      </c>
+      <c r="N868" t="n">
+        <v>31</v>
+      </c>
+      <c r="O868" t="n">
+        <v>0</v>
+      </c>
+      <c r="P868" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>1</v>
+      </c>
+      <c r="R868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B869" t="n">
+        <v>42.84000015258789</v>
+      </c>
+      <c r="C869" t="n">
+        <v>44.38999938964844</v>
+      </c>
+      <c r="D869" t="n">
+        <v>41.97999954223633</v>
+      </c>
+      <c r="E869" t="n">
+        <v>42.13999938964844</v>
+      </c>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="n">
+        <v>316578</v>
+      </c>
+      <c r="H869" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I869" t="n">
+        <v>8</v>
+      </c>
+      <c r="J869" t="n">
+        <v>6</v>
+      </c>
+      <c r="K869" t="n">
+        <v>0</v>
+      </c>
+      <c r="L869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M869" t="n">
+        <v>0</v>
+      </c>
+      <c r="N869" t="n">
+        <v>32</v>
+      </c>
+      <c r="O869" t="n">
+        <v>0</v>
+      </c>
+      <c r="P869" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>0</v>
+      </c>
+      <c r="R869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B870" t="n">
+        <v>42</v>
+      </c>
+      <c r="C870" t="n">
+        <v>44.06999969482422</v>
+      </c>
+      <c r="D870" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E870" t="n">
+        <v>44.06999969482422</v>
+      </c>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="n">
+        <v>559349</v>
+      </c>
+      <c r="H870" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I870" t="n">
+        <v>8</v>
+      </c>
+      <c r="J870" t="n">
+        <v>13</v>
+      </c>
+      <c r="K870" t="n">
+        <v>0</v>
+      </c>
+      <c r="L870" t="n">
+        <v>0</v>
+      </c>
+      <c r="M870" t="n">
+        <v>0</v>
+      </c>
+      <c r="N870" t="n">
+        <v>33</v>
+      </c>
+      <c r="O870" t="n">
+        <v>2</v>
+      </c>
+      <c r="P870" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>0</v>
+      </c>
+      <c r="R870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B871" t="n">
+        <v>46.16999816894531</v>
+      </c>
+      <c r="C871" t="n">
+        <v>54.29999923706055</v>
+      </c>
+      <c r="D871" t="n">
+        <v>44.79999923706055</v>
+      </c>
+      <c r="E871" t="n">
+        <v>54.29999923706055</v>
+      </c>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="n">
+        <v>3596670</v>
+      </c>
+      <c r="H871" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I871" t="n">
+        <v>8</v>
+      </c>
+      <c r="J871" t="n">
+        <v>20</v>
+      </c>
+      <c r="K871" t="n">
+        <v>0</v>
+      </c>
+      <c r="L871" t="n">
+        <v>0</v>
+      </c>
+      <c r="M871" t="n">
+        <v>0</v>
+      </c>
+      <c r="N871" t="n">
+        <v>34</v>
+      </c>
+      <c r="O871" t="n">
+        <v>0</v>
+      </c>
+      <c r="P871" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>2</v>
+      </c>
+      <c r="R871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B872" t="n">
+        <v>57.0099983215332</v>
+      </c>
+      <c r="C872" t="n">
+        <v>57.0099983215332</v>
+      </c>
+      <c r="D872" t="n">
+        <v>51.29000091552734</v>
+      </c>
+      <c r="E872" t="n">
+        <v>51.29000091552734</v>
+      </c>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="n">
+        <v>1002189</v>
+      </c>
+      <c r="H872" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I872" t="n">
+        <v>8</v>
+      </c>
+      <c r="J872" t="n">
+        <v>27</v>
+      </c>
+      <c r="K872" t="n">
+        <v>0</v>
+      </c>
+      <c r="L872" t="n">
+        <v>0</v>
+      </c>
+      <c r="M872" t="n">
+        <v>0</v>
+      </c>
+      <c r="N872" t="n">
+        <v>35</v>
+      </c>
+      <c r="O872" t="n">
+        <v>1</v>
+      </c>
+      <c r="P872" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>0</v>
+      </c>
+      <c r="R872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B873" t="n">
+        <v>50.31000137329102</v>
+      </c>
+      <c r="C873" t="n">
+        <v>50.31000137329102</v>
+      </c>
+      <c r="D873" t="n">
+        <v>47.77000045776367</v>
+      </c>
+      <c r="E873" t="n">
+        <v>47.77000045776367</v>
+      </c>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="n">
+        <v>538888</v>
+      </c>
+      <c r="H873" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I873" t="n">
+        <v>9</v>
+      </c>
+      <c r="J873" t="n">
+        <v>3</v>
+      </c>
+      <c r="K873" t="n">
+        <v>0</v>
+      </c>
+      <c r="L873" t="n">
+        <v>0</v>
+      </c>
+      <c r="M873" t="n">
+        <v>0</v>
+      </c>
+      <c r="N873" t="n">
+        <v>36</v>
+      </c>
+      <c r="O873" t="n">
+        <v>0</v>
+      </c>
+      <c r="P873" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>0</v>
+      </c>
+      <c r="R873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B874" t="n">
+        <v>47.79000091552734</v>
+      </c>
+      <c r="C874" t="n">
+        <v>47.90000152587891</v>
+      </c>
+      <c r="D874" t="n">
+        <v>45.06000137329102</v>
+      </c>
+      <c r="E874" t="n">
+        <v>46.56000137329102</v>
+      </c>
+      <c r="F874" t="inlineStr"/>
+      <c r="G874" t="n">
+        <v>287191</v>
+      </c>
+      <c r="H874" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I874" t="n">
+        <v>9</v>
+      </c>
+      <c r="J874" t="n">
+        <v>10</v>
+      </c>
+      <c r="K874" t="n">
+        <v>0</v>
+      </c>
+      <c r="L874" t="n">
+        <v>0</v>
+      </c>
+      <c r="M874" t="n">
+        <v>0</v>
+      </c>
+      <c r="N874" t="n">
+        <v>37</v>
+      </c>
+      <c r="O874" t="n">
+        <v>0</v>
+      </c>
+      <c r="P874" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>0</v>
+      </c>
+      <c r="R874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B875" t="n">
+        <v>47.4900016784668</v>
+      </c>
+      <c r="C875" t="n">
+        <v>51.36999893188477</v>
+      </c>
+      <c r="D875" t="n">
+        <v>47.4900016784668</v>
+      </c>
+      <c r="E875" t="n">
+        <v>51.36999893188477</v>
+      </c>
+      <c r="F875" t="inlineStr"/>
+      <c r="G875" t="n">
+        <v>715280</v>
+      </c>
+      <c r="H875" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I875" t="n">
+        <v>9</v>
+      </c>
+      <c r="J875" t="n">
+        <v>17</v>
+      </c>
+      <c r="K875" t="n">
+        <v>0</v>
+      </c>
+      <c r="L875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M875" t="n">
+        <v>0</v>
+      </c>
+      <c r="N875" t="n">
+        <v>38</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+      <c r="P875" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
+      <c r="R875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B876" t="n">
+        <v>50.34000015258789</v>
+      </c>
+      <c r="C876" t="n">
+        <v>51</v>
+      </c>
+      <c r="D876" t="n">
+        <v>48.36999893188477</v>
+      </c>
+      <c r="E876" t="n">
+        <v>49.38999938964844</v>
+      </c>
+      <c r="F876" t="inlineStr"/>
+      <c r="G876" t="n">
+        <v>1433013</v>
+      </c>
+      <c r="H876" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I876" t="n">
+        <v>9</v>
+      </c>
+      <c r="J876" t="n">
+        <v>24</v>
+      </c>
+      <c r="K876" t="n">
+        <v>0</v>
+      </c>
+      <c r="L876" t="n">
+        <v>0</v>
+      </c>
+      <c r="M876" t="n">
+        <v>0</v>
+      </c>
+      <c r="N876" t="n">
+        <v>39</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+      <c r="P876" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>1</v>
+      </c>
+      <c r="R876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B877" t="n">
+        <v>49.02000045776367</v>
+      </c>
+      <c r="C877" t="n">
+        <v>51.40000152587891</v>
+      </c>
+      <c r="D877" t="n">
+        <v>47.97000122070312</v>
+      </c>
+      <c r="E877" t="n">
+        <v>47.97000122070312</v>
+      </c>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="n">
+        <v>438863</v>
+      </c>
+      <c r="H877" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I877" t="n">
+        <v>10</v>
+      </c>
+      <c r="J877" t="n">
+        <v>1</v>
+      </c>
+      <c r="K877" t="n">
+        <v>0</v>
+      </c>
+      <c r="L877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M877" t="n">
+        <v>0</v>
+      </c>
+      <c r="N877" t="n">
+        <v>40</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+      <c r="P877" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>0</v>
+      </c>
+      <c r="R877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B878" t="n">
+        <v>45.56999969482422</v>
+      </c>
+      <c r="C878" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D878" t="n">
+        <v>45.56000137329102</v>
+      </c>
+      <c r="E878" t="n">
+        <v>45.93000030517578</v>
+      </c>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="n">
+        <v>649191</v>
+      </c>
+      <c r="H878" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I878" t="n">
+        <v>10</v>
+      </c>
+      <c r="J878" t="n">
+        <v>8</v>
+      </c>
+      <c r="K878" t="n">
+        <v>0</v>
+      </c>
+      <c r="L878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M878" t="n">
+        <v>0</v>
+      </c>
+      <c r="N878" t="n">
+        <v>41</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+      <c r="P878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>2</v>
+      </c>
+      <c r="R878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B879" t="n">
+        <v>45.93000030517578</v>
+      </c>
+      <c r="C879" t="n">
+        <v>47.20000076293945</v>
+      </c>
+      <c r="D879" t="n">
+        <v>41.7599983215332</v>
+      </c>
+      <c r="E879" t="n">
+        <v>42.79000091552734</v>
+      </c>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="n">
+        <v>554169</v>
+      </c>
+      <c r="H879" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I879" t="n">
+        <v>10</v>
+      </c>
+      <c r="J879" t="n">
+        <v>15</v>
+      </c>
+      <c r="K879" t="n">
+        <v>0</v>
+      </c>
+      <c r="L879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>0</v>
+      </c>
+      <c r="N879" t="n">
+        <v>42</v>
+      </c>
+      <c r="O879" t="n">
+        <v>0</v>
+      </c>
+      <c r="P879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
+      <c r="R879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B880" t="n">
+        <v>43.79999923706055</v>
+      </c>
+      <c r="C880" t="n">
+        <v>43.79999923706055</v>
+      </c>
+      <c r="D880" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E880" t="n">
+        <v>36.13000106811523</v>
+      </c>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="n">
+        <v>1080103</v>
+      </c>
+      <c r="H880" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I880" t="n">
+        <v>10</v>
+      </c>
+      <c r="J880" t="n">
+        <v>22</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>0</v>
+      </c>
+      <c r="N880" t="n">
+        <v>43</v>
+      </c>
+      <c r="O880" t="n">
+        <v>2</v>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
+      <c r="R880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B881" t="n">
+        <v>36.13000106811523</v>
+      </c>
+      <c r="C881" t="n">
+        <v>44.70000076293945</v>
+      </c>
+      <c r="D881" t="n">
+        <v>35.40000152587891</v>
+      </c>
+      <c r="E881" t="n">
+        <v>43.13000106811523</v>
+      </c>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="n">
+        <v>1957278</v>
+      </c>
+      <c r="H881" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I881" t="n">
+        <v>10</v>
+      </c>
+      <c r="J881" t="n">
+        <v>29</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>0</v>
+      </c>
+      <c r="N881" t="n">
+        <v>44</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+      <c r="P881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0</v>
+      </c>
+      <c r="R881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B882" t="n">
+        <v>42.5099983215332</v>
+      </c>
+      <c r="C882" t="n">
+        <v>43.4900016784668</v>
+      </c>
+      <c r="D882" t="n">
+        <v>40</v>
+      </c>
+      <c r="E882" t="n">
+        <v>40.09999847412109</v>
+      </c>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="n">
+        <v>663247</v>
+      </c>
+      <c r="H882" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I882" t="n">
+        <v>11</v>
+      </c>
+      <c r="J882" t="n">
+        <v>5</v>
+      </c>
+      <c r="K882" t="n">
+        <v>0</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>0</v>
+      </c>
+      <c r="N882" t="n">
+        <v>45</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
+      <c r="R882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B883" t="n">
+        <v>41</v>
+      </c>
+      <c r="C883" t="n">
+        <v>41.66999816894531</v>
+      </c>
+      <c r="D883" t="n">
+        <v>35.06000137329102</v>
+      </c>
+      <c r="E883" t="n">
+        <v>35.61999893188477</v>
+      </c>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="n">
+        <v>683532</v>
+      </c>
+      <c r="H883" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I883" t="n">
+        <v>11</v>
+      </c>
+      <c r="J883" t="n">
+        <v>12</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>46</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
+      <c r="R883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B884" t="n">
+        <v>36.45999908447266</v>
+      </c>
+      <c r="C884" t="n">
+        <v>38.45999908447266</v>
+      </c>
+      <c r="D884" t="n">
+        <v>34.90000152587891</v>
+      </c>
+      <c r="E884" t="n">
+        <v>37.59000015258789</v>
+      </c>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="n">
+        <v>761286</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I884" t="n">
+        <v>11</v>
+      </c>
+      <c r="J884" t="n">
+        <v>19</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>47</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B885" t="n">
+        <v>37.59000015258789</v>
+      </c>
+      <c r="C885" t="n">
+        <v>39.93999862670898</v>
+      </c>
+      <c r="D885" t="n">
+        <v>37.43000030517578</v>
+      </c>
+      <c r="E885" t="n">
+        <v>38.83000183105469</v>
+      </c>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="n">
+        <v>507767</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I885" t="n">
+        <v>11</v>
+      </c>
+      <c r="J885" t="n">
+        <v>26</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>48</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
+      <c r="R885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B886" t="n">
+        <v>39.40999984741211</v>
+      </c>
+      <c r="C886" t="n">
+        <v>52.5099983215332</v>
+      </c>
+      <c r="D886" t="n">
+        <v>38.79999923706055</v>
+      </c>
+      <c r="E886" t="n">
+        <v>52.43999862670898</v>
+      </c>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="n">
+        <v>3813787</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I886" t="n">
+        <v>12</v>
+      </c>
+      <c r="J886" t="n">
+        <v>3</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>49</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+      <c r="P886" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>1</v>
+      </c>
+      <c r="R886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B887" t="n">
+        <v>53</v>
+      </c>
+      <c r="C887" t="n">
+        <v>70.08000183105469</v>
+      </c>
+      <c r="D887" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="E887" t="n">
+        <v>70.08000183105469</v>
+      </c>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="n">
+        <v>4178541</v>
+      </c>
+      <c r="H887" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I887" t="n">
+        <v>12</v>
+      </c>
+      <c r="J887" t="n">
+        <v>10</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>50</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
+      <c r="R887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B888" t="n">
+        <v>73.58000183105469</v>
+      </c>
+      <c r="C888" t="n">
+        <v>89.41000366210938</v>
+      </c>
+      <c r="D888" t="n">
+        <v>73.58000183105469</v>
+      </c>
+      <c r="E888" t="n">
+        <v>89.41000366210938</v>
+      </c>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="n">
+        <v>2604222</v>
+      </c>
+      <c r="H888" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I888" t="n">
+        <v>12</v>
+      </c>
+      <c r="J888" t="n">
+        <v>17</v>
+      </c>
+      <c r="K888" t="n">
+        <v>0</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M888" t="n">
+        <v>0</v>
+      </c>
+      <c r="N888" t="n">
+        <v>51</v>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>0</v>
+      </c>
+      <c r="R888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B889" t="n">
+        <v>93.87999725341797</v>
+      </c>
+      <c r="C889" t="n">
+        <v>99.61000061035156</v>
+      </c>
+      <c r="D889" t="n">
+        <v>93.87999725341797</v>
+      </c>
+      <c r="E889" t="n">
+        <v>99.61000061035156</v>
+      </c>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="n">
+        <v>3939482</v>
+      </c>
+      <c r="H889" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I889" t="n">
+        <v>12</v>
+      </c>
+      <c r="J889" t="n">
+        <v>24</v>
+      </c>
+      <c r="K889" t="n">
+        <v>0</v>
+      </c>
+      <c r="L889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M889" t="n">
+        <v>0</v>
+      </c>
+      <c r="N889" t="n">
+        <v>52</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
+      <c r="R889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B890" t="n">
+        <v>101.5999984741211</v>
+      </c>
+      <c r="C890" t="n">
+        <v>109.9599990844727</v>
+      </c>
+      <c r="D890" t="n">
+        <v>101.4899978637695</v>
+      </c>
+      <c r="E890" t="n">
+        <v>109.9599990844727</v>
+      </c>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="n">
+        <v>3748904</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I890" t="n">
+        <v>12</v>
+      </c>
+      <c r="J890" t="n">
+        <v>31</v>
+      </c>
+      <c r="K890" t="n">
+        <v>0</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="n">
+        <v>1</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
+      <c r="R890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B891" t="n">
+        <v>112.1500015258789</v>
+      </c>
+      <c r="C891" t="n">
+        <v>121.379997253418</v>
+      </c>
+      <c r="D891" t="n">
+        <v>112.1500015258789</v>
+      </c>
+      <c r="E891" t="n">
+        <v>121.379997253418</v>
+      </c>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="n">
+        <v>1840779</v>
+      </c>
+      <c r="H891" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I891" t="n">
+        <v>1</v>
+      </c>
+      <c r="J891" t="n">
+        <v>7</v>
+      </c>
+      <c r="K891" t="n">
+        <v>0</v>
+      </c>
+      <c r="L891" t="n">
+        <v>0</v>
+      </c>
+      <c r="M891" t="n">
+        <v>0</v>
+      </c>
+      <c r="N891" t="n">
+        <v>2</v>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+      <c r="P891" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>0</v>
+      </c>
+      <c r="R891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B892" t="n">
+        <v>123.8000030517578</v>
+      </c>
+      <c r="C892" t="n">
+        <v>133.9799957275391</v>
+      </c>
+      <c r="D892" t="n">
+        <v>123.8000030517578</v>
+      </c>
+      <c r="E892" t="n">
+        <v>133.9799957275391</v>
+      </c>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="n">
+        <v>2284162</v>
+      </c>
+      <c r="H892" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I892" t="n">
+        <v>1</v>
+      </c>
+      <c r="J892" t="n">
+        <v>14</v>
+      </c>
+      <c r="K892" t="n">
+        <v>0</v>
+      </c>
+      <c r="L892" t="n">
+        <v>0</v>
+      </c>
+      <c r="M892" t="n">
+        <v>0</v>
+      </c>
+      <c r="N892" t="n">
+        <v>3</v>
+      </c>
+      <c r="O892" t="n">
+        <v>0</v>
+      </c>
+      <c r="P892" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>0</v>
+      </c>
+      <c r="R892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B893" t="n">
+        <v>136.6499938964844</v>
+      </c>
+      <c r="C893" t="n">
+        <v>145</v>
+      </c>
+      <c r="D893" t="n">
+        <v>136.6499938964844</v>
+      </c>
+      <c r="E893" t="n">
+        <v>142.1000061035156</v>
+      </c>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="n">
+        <v>1452526</v>
+      </c>
+      <c r="H893" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I893" t="n">
+        <v>1</v>
+      </c>
+      <c r="J893" t="n">
+        <v>21</v>
+      </c>
+      <c r="K893" t="n">
+        <v>0</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M893" t="n">
+        <v>0</v>
+      </c>
+      <c r="N893" t="n">
+        <v>4</v>
+      </c>
+      <c r="O893" t="n">
+        <v>1</v>
+      </c>
+      <c r="P893" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q893" t="n">
+        <v>0</v>
+      </c>
+      <c r="R893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B894" t="n">
+        <v>139.25</v>
+      </c>
+      <c r="C894" t="n">
+        <v>139.25</v>
+      </c>
+      <c r="D894" t="n">
+        <v>133.7299957275391</v>
+      </c>
+      <c r="E894" t="n">
+        <v>136.3300018310547</v>
+      </c>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="n">
+        <v>2689953</v>
+      </c>
+      <c r="H894" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I894" t="n">
+        <v>1</v>
+      </c>
+      <c r="J894" t="n">
+        <v>28</v>
+      </c>
+      <c r="K894" t="n">
+        <v>0</v>
+      </c>
+      <c r="L894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M894" t="n">
+        <v>0</v>
+      </c>
+      <c r="N894" t="n">
+        <v>5</v>
+      </c>
+      <c r="O894" t="n">
+        <v>0</v>
+      </c>
+      <c r="P894" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q894" t="n">
+        <v>0</v>
+      </c>
+      <c r="R894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B895" t="n">
+        <v>133.6000061035156</v>
+      </c>
+      <c r="C895" t="n">
+        <v>138.5500030517578</v>
+      </c>
+      <c r="D895" t="n">
+        <v>123.7600021362305</v>
+      </c>
+      <c r="E895" t="n">
+        <v>123.7600021362305</v>
+      </c>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="n">
+        <v>1077753</v>
+      </c>
+      <c r="H895" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I895" t="n">
+        <v>2</v>
+      </c>
+      <c r="J895" t="n">
+        <v>4</v>
+      </c>
+      <c r="K895" t="n">
+        <v>0</v>
+      </c>
+      <c r="L895" t="n">
+        <v>0</v>
+      </c>
+      <c r="M895" t="n">
+        <v>0</v>
+      </c>
+      <c r="N895" t="n">
+        <v>6</v>
+      </c>
+      <c r="O895" t="n">
+        <v>0</v>
+      </c>
+      <c r="P895" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q895" t="n">
+        <v>0</v>
+      </c>
+      <c r="R895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B896" t="n">
+        <v>121.2799987792969</v>
+      </c>
+      <c r="C896" t="n">
+        <v>121.2799987792969</v>
+      </c>
+      <c r="D896" t="n">
+        <v>108.4300003051758</v>
+      </c>
+      <c r="E896" t="n">
+        <v>108.4300003051758</v>
+      </c>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="n">
+        <v>720079</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I896" t="n">
+        <v>2</v>
+      </c>
+      <c r="J896" t="n">
+        <v>11</v>
+      </c>
+      <c r="K896" t="n">
+        <v>0</v>
+      </c>
+      <c r="L896" t="n">
+        <v>0</v>
+      </c>
+      <c r="M896" t="n">
+        <v>0</v>
+      </c>
+      <c r="N896" t="n">
+        <v>7</v>
+      </c>
+      <c r="O896" t="n">
+        <v>0</v>
+      </c>
+      <c r="P896" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q896" t="n">
+        <v>0</v>
+      </c>
+      <c r="R896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B897" t="n">
+        <v>103</v>
+      </c>
+      <c r="C897" t="n">
+        <v>107</v>
+      </c>
+      <c r="D897" t="n">
+        <v>91.20999908447266</v>
+      </c>
+      <c r="E897" t="n">
+        <v>91.20999908447266</v>
+      </c>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="n">
+        <v>3149041</v>
+      </c>
+      <c r="H897" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I897" t="n">
+        <v>2</v>
+      </c>
+      <c r="J897" t="n">
+        <v>18</v>
+      </c>
+      <c r="K897" t="n">
+        <v>0</v>
+      </c>
+      <c r="L897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M897" t="n">
+        <v>0</v>
+      </c>
+      <c r="N897" t="n">
+        <v>8</v>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+      <c r="P897" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q897" t="n">
+        <v>0</v>
+      </c>
+      <c r="R897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B898" t="n">
+        <v>86.63999938964844</v>
+      </c>
+      <c r="C898" t="n">
+        <v>86.63999938964844</v>
+      </c>
+      <c r="D898" t="n">
+        <v>78.18000030517578</v>
+      </c>
+      <c r="E898" t="n">
+        <v>78.18000030517578</v>
+      </c>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="n">
+        <v>377373</v>
+      </c>
+      <c r="H898" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I898" t="n">
+        <v>2</v>
+      </c>
+      <c r="J898" t="n">
+        <v>25</v>
+      </c>
+      <c r="K898" t="n">
+        <v>0</v>
+      </c>
+      <c r="L898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M898" t="n">
+        <v>0</v>
+      </c>
+      <c r="N898" t="n">
+        <v>9</v>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+      <c r="P898" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
+      <c r="R898" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BGRENERGY.NS.xlsx
+++ b/stock_historical_data/1wk/BGRENERGY.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R898"/>
+  <dimension ref="A1:R907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -48851,7 +48851,9 @@
       <c r="Q864" t="n">
         <v>0</v>
       </c>
-      <c r="R864" t="inlineStr"/>
+      <c r="R864" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
@@ -48903,7 +48905,9 @@
       <c r="Q865" t="n">
         <v>0</v>
       </c>
-      <c r="R865" t="inlineStr"/>
+      <c r="R865" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
@@ -48955,7 +48959,9 @@
       <c r="Q866" t="n">
         <v>0</v>
       </c>
-      <c r="R866" t="inlineStr"/>
+      <c r="R866" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
@@ -49007,7 +49013,9 @@
       <c r="Q867" t="n">
         <v>0</v>
       </c>
-      <c r="R867" t="inlineStr"/>
+      <c r="R867" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
@@ -49059,7 +49067,9 @@
       <c r="Q868" t="n">
         <v>1</v>
       </c>
-      <c r="R868" t="inlineStr"/>
+      <c r="R868" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
@@ -49111,7 +49121,9 @@
       <c r="Q869" t="n">
         <v>0</v>
       </c>
-      <c r="R869" t="inlineStr"/>
+      <c r="R869" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
@@ -49163,7 +49175,9 @@
       <c r="Q870" t="n">
         <v>0</v>
       </c>
-      <c r="R870" t="inlineStr"/>
+      <c r="R870" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
@@ -49215,7 +49229,9 @@
       <c r="Q871" t="n">
         <v>2</v>
       </c>
-      <c r="R871" t="inlineStr"/>
+      <c r="R871" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
@@ -49267,7 +49283,9 @@
       <c r="Q872" t="n">
         <v>0</v>
       </c>
-      <c r="R872" t="inlineStr"/>
+      <c r="R872" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
@@ -49319,7 +49337,9 @@
       <c r="Q873" t="n">
         <v>0</v>
       </c>
-      <c r="R873" t="inlineStr"/>
+      <c r="R873" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
@@ -49371,7 +49391,9 @@
       <c r="Q874" t="n">
         <v>0</v>
       </c>
-      <c r="R874" t="inlineStr"/>
+      <c r="R874" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
@@ -49423,7 +49445,9 @@
       <c r="Q875" t="n">
         <v>0</v>
       </c>
-      <c r="R875" t="inlineStr"/>
+      <c r="R875" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
@@ -49475,7 +49499,9 @@
       <c r="Q876" t="n">
         <v>1</v>
       </c>
-      <c r="R876" t="inlineStr"/>
+      <c r="R876" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
@@ -49527,7 +49553,9 @@
       <c r="Q877" t="n">
         <v>0</v>
       </c>
-      <c r="R877" t="inlineStr"/>
+      <c r="R877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -49579,7 +49607,9 @@
       <c r="Q878" t="n">
         <v>2</v>
       </c>
-      <c r="R878" t="inlineStr"/>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -49631,7 +49661,9 @@
       <c r="Q879" t="n">
         <v>0</v>
       </c>
-      <c r="R879" t="inlineStr"/>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -49683,7 +49715,9 @@
       <c r="Q880" t="n">
         <v>0</v>
       </c>
-      <c r="R880" t="inlineStr"/>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -49735,7 +49769,9 @@
       <c r="Q881" t="n">
         <v>0</v>
       </c>
-      <c r="R881" t="inlineStr"/>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
@@ -49787,7 +49823,9 @@
       <c r="Q882" t="n">
         <v>0</v>
       </c>
-      <c r="R882" t="inlineStr"/>
+      <c r="R882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -49839,7 +49877,9 @@
       <c r="Q883" t="n">
         <v>0</v>
       </c>
-      <c r="R883" t="inlineStr"/>
+      <c r="R883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
@@ -49891,7 +49931,9 @@
       <c r="Q884" t="n">
         <v>0</v>
       </c>
-      <c r="R884" t="inlineStr"/>
+      <c r="R884" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -49943,7 +49985,9 @@
       <c r="Q885" t="n">
         <v>0</v>
       </c>
-      <c r="R885" t="inlineStr"/>
+      <c r="R885" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -49995,7 +50039,9 @@
       <c r="Q886" t="n">
         <v>1</v>
       </c>
-      <c r="R886" t="inlineStr"/>
+      <c r="R886" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
@@ -50047,7 +50093,9 @@
       <c r="Q887" t="n">
         <v>0</v>
       </c>
-      <c r="R887" t="inlineStr"/>
+      <c r="R887" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -50099,7 +50147,9 @@
       <c r="Q888" t="n">
         <v>0</v>
       </c>
-      <c r="R888" t="inlineStr"/>
+      <c r="R888" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -50151,7 +50201,9 @@
       <c r="Q889" t="n">
         <v>0</v>
       </c>
-      <c r="R889" t="inlineStr"/>
+      <c r="R889" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
@@ -50203,7 +50255,9 @@
       <c r="Q890" t="n">
         <v>0</v>
       </c>
-      <c r="R890" t="inlineStr"/>
+      <c r="R890" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
@@ -50255,7 +50309,9 @@
       <c r="Q891" t="n">
         <v>0</v>
       </c>
-      <c r="R891" t="inlineStr"/>
+      <c r="R891" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
@@ -50307,7 +50363,9 @@
       <c r="Q892" t="n">
         <v>0</v>
       </c>
-      <c r="R892" t="inlineStr"/>
+      <c r="R892" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
@@ -50359,7 +50417,9 @@
       <c r="Q893" t="n">
         <v>0</v>
       </c>
-      <c r="R893" t="inlineStr"/>
+      <c r="R893" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
@@ -50411,7 +50471,9 @@
       <c r="Q894" t="n">
         <v>0</v>
       </c>
-      <c r="R894" t="inlineStr"/>
+      <c r="R894" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
@@ -50463,7 +50525,9 @@
       <c r="Q895" t="n">
         <v>0</v>
       </c>
-      <c r="R895" t="inlineStr"/>
+      <c r="R895" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
@@ -50515,7 +50579,9 @@
       <c r="Q896" t="n">
         <v>0</v>
       </c>
-      <c r="R896" t="inlineStr"/>
+      <c r="R896" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
@@ -50567,7 +50633,9 @@
       <c r="Q897" t="n">
         <v>0</v>
       </c>
-      <c r="R897" t="inlineStr"/>
+      <c r="R897" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
@@ -50619,7 +50687,477 @@
       <c r="Q898" t="n">
         <v>0</v>
       </c>
-      <c r="R898" t="inlineStr"/>
+      <c r="R898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B899" t="n">
+        <v>70.55000305175781</v>
+      </c>
+      <c r="C899" t="n">
+        <v>86.76999664306641</v>
+      </c>
+      <c r="D899" t="n">
+        <v>69.05000305175781</v>
+      </c>
+      <c r="E899" t="n">
+        <v>86.65000152587891</v>
+      </c>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="n">
+        <v>2118053</v>
+      </c>
+      <c r="H899" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I899" t="n">
+        <v>3</v>
+      </c>
+      <c r="J899" t="n">
+        <v>4</v>
+      </c>
+      <c r="K899" t="n">
+        <v>0</v>
+      </c>
+      <c r="L899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M899" t="n">
+        <v>0</v>
+      </c>
+      <c r="N899" t="n">
+        <v>10</v>
+      </c>
+      <c r="O899" t="n">
+        <v>2</v>
+      </c>
+      <c r="P899" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>2</v>
+      </c>
+      <c r="R899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B900" t="n">
+        <v>85.90000152587891</v>
+      </c>
+      <c r="C900" t="n">
+        <v>87.98000335693359</v>
+      </c>
+      <c r="D900" t="n">
+        <v>80.68000030517578</v>
+      </c>
+      <c r="E900" t="n">
+        <v>80.68000030517578</v>
+      </c>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="n">
+        <v>842257</v>
+      </c>
+      <c r="H900" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I900" t="n">
+        <v>3</v>
+      </c>
+      <c r="J900" t="n">
+        <v>11</v>
+      </c>
+      <c r="K900" t="n">
+        <v>0</v>
+      </c>
+      <c r="L900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>11</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>0</v>
+      </c>
+      <c r="R900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B901" t="n">
+        <v>81.05000305175781</v>
+      </c>
+      <c r="C901" t="n">
+        <v>85.83999633789062</v>
+      </c>
+      <c r="D901" t="n">
+        <v>79.16000366210938</v>
+      </c>
+      <c r="E901" t="n">
+        <v>85.83999633789062</v>
+      </c>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="n">
+        <v>431307</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I901" t="n">
+        <v>3</v>
+      </c>
+      <c r="J901" t="n">
+        <v>18</v>
+      </c>
+      <c r="K901" t="n">
+        <v>0</v>
+      </c>
+      <c r="L901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>0</v>
+      </c>
+      <c r="N901" t="n">
+        <v>12</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+      <c r="P901" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
+      <c r="R901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B902" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C902" t="n">
+        <v>87.55000305175781</v>
+      </c>
+      <c r="D902" t="n">
+        <v>83</v>
+      </c>
+      <c r="E902" t="n">
+        <v>83</v>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="n">
+        <v>246684</v>
+      </c>
+      <c r="H902" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I902" t="n">
+        <v>3</v>
+      </c>
+      <c r="J902" t="n">
+        <v>25</v>
+      </c>
+      <c r="K902" t="n">
+        <v>0</v>
+      </c>
+      <c r="L902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M902" t="n">
+        <v>0</v>
+      </c>
+      <c r="N902" t="n">
+        <v>13</v>
+      </c>
+      <c r="O902" t="n">
+        <v>0</v>
+      </c>
+      <c r="P902" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
+      <c r="R902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B903" t="n">
+        <v>81.33999633789062</v>
+      </c>
+      <c r="C903" t="n">
+        <v>84.44999694824219</v>
+      </c>
+      <c r="D903" t="n">
+        <v>78.36000061035156</v>
+      </c>
+      <c r="E903" t="n">
+        <v>78.36000061035156</v>
+      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="n">
+        <v>199438</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I903" t="n">
+        <v>4</v>
+      </c>
+      <c r="J903" t="n">
+        <v>1</v>
+      </c>
+      <c r="K903" t="n">
+        <v>0</v>
+      </c>
+      <c r="L903" t="n">
+        <v>0</v>
+      </c>
+      <c r="M903" t="n">
+        <v>0</v>
+      </c>
+      <c r="N903" t="n">
+        <v>14</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+      <c r="P903" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>0</v>
+      </c>
+      <c r="R903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B904" t="n">
+        <v>77.16000366210938</v>
+      </c>
+      <c r="C904" t="n">
+        <v>77.16000366210938</v>
+      </c>
+      <c r="D904" t="n">
+        <v>74.08999633789062</v>
+      </c>
+      <c r="E904" t="n">
+        <v>74.09999847412109</v>
+      </c>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="n">
+        <v>171290</v>
+      </c>
+      <c r="H904" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I904" t="n">
+        <v>4</v>
+      </c>
+      <c r="J904" t="n">
+        <v>8</v>
+      </c>
+      <c r="K904" t="n">
+        <v>0</v>
+      </c>
+      <c r="L904" t="n">
+        <v>0</v>
+      </c>
+      <c r="M904" t="n">
+        <v>0</v>
+      </c>
+      <c r="N904" t="n">
+        <v>15</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+      <c r="P904" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q904" t="n">
+        <v>0</v>
+      </c>
+      <c r="R904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B905" t="n">
+        <v>74.08000183105469</v>
+      </c>
+      <c r="C905" t="n">
+        <v>80.91999816894531</v>
+      </c>
+      <c r="D905" t="n">
+        <v>74</v>
+      </c>
+      <c r="E905" t="n">
+        <v>80.91999816894531</v>
+      </c>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="n">
+        <v>117858</v>
+      </c>
+      <c r="H905" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I905" t="n">
+        <v>4</v>
+      </c>
+      <c r="J905" t="n">
+        <v>15</v>
+      </c>
+      <c r="K905" t="n">
+        <v>0</v>
+      </c>
+      <c r="L905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M905" t="n">
+        <v>0</v>
+      </c>
+      <c r="N905" t="n">
+        <v>16</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+      <c r="P905" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q905" t="n">
+        <v>1</v>
+      </c>
+      <c r="R905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B906" t="n">
+        <v>84.95999908447266</v>
+      </c>
+      <c r="C906" t="n">
+        <v>103</v>
+      </c>
+      <c r="D906" t="n">
+        <v>84.95999908447266</v>
+      </c>
+      <c r="E906" t="n">
+        <v>98.73000335693359</v>
+      </c>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="n">
+        <v>953650</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I906" t="n">
+        <v>4</v>
+      </c>
+      <c r="J906" t="n">
+        <v>22</v>
+      </c>
+      <c r="K906" t="n">
+        <v>0</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0</v>
+      </c>
+      <c r="N906" t="n">
+        <v>17</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+      <c r="P906" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>0</v>
+      </c>
+      <c r="R906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B907" t="n">
+        <v>98.73000335693359</v>
+      </c>
+      <c r="C907" t="n">
+        <v>102.9899978637695</v>
+      </c>
+      <c r="D907" t="n">
+        <v>98.73000335693359</v>
+      </c>
+      <c r="E907" t="n">
+        <v>99.47000122070312</v>
+      </c>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="n">
+        <v>301089</v>
+      </c>
+      <c r="H907" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I907" t="n">
+        <v>4</v>
+      </c>
+      <c r="J907" t="n">
+        <v>29</v>
+      </c>
+      <c r="K907" t="n">
+        <v>0</v>
+      </c>
+      <c r="L907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>0</v>
+      </c>
+      <c r="N907" t="n">
+        <v>18</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+      <c r="P907" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
+      <c r="R907" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
